--- a/data/clinic/data.xlsx
+++ b/data/clinic/data.xlsx
@@ -489,10 +489,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>34.42212</v>
+        <v>34.42261717064336</v>
       </c>
       <c r="C3" t="str">
-        <v>134.054808</v>
+        <v>134.0542368597885</v>
       </c>
       <c r="D3" t="str">
         <v>高松市国民健康保険男木診療所</v>
